--- a/outputs-r202/test-o__Erysipelotrichales.xlsx
+++ b/outputs-r202/test-o__Erysipelotrichales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Row</t>
   </si>
@@ -142,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,14 +152,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,21 +183,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -207,7 +211,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -221,8 +225,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -235,8 +239,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -249,8 +253,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -263,50 +267,50 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.9999999999999778</v>
@@ -319,8 +323,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.9999999999999778</v>
@@ -333,8 +337,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0.9999999999999778</v>
@@ -347,8 +351,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0.9999999999999778</v>
@@ -361,8 +365,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0.9999999999999778</v>
@@ -375,8 +379,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0.9999999999999778</v>
@@ -389,8 +393,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B16">
         <v>0.9999999999999778</v>
@@ -403,36 +407,36 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -445,50 +449,50 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.2204460492502639e-14</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2.2204460492502639e-14</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -501,8 +505,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -515,8 +519,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -529,8 +533,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B26">
         <v>0</v>
